--- a/new_data/second analysis/counting.xlsx
+++ b/new_data/second analysis/counting.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\new_data\second analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\new_data\second analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326265E5-A1A5-45DF-A234-398FDC8386B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FA6821-A7D0-4888-8E3C-BE6E372954AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
   <si>
     <t>Component</t>
   </si>
@@ -53,9 +53,6 @@
     <t>CONVOYEUR AVANT PRESSE</t>
   </si>
   <si>
-    <t>Number of failure</t>
-  </si>
-  <si>
     <t>CONVOYEUR APRES PRESSE</t>
   </si>
   <si>
@@ -360,14 +357,28 @@
   </si>
   <si>
     <t>REFROIDISSEUR</t>
+  </si>
+  <si>
+    <t>Number of failure (component)</t>
+  </si>
+  <si>
+    <t>Number of failure (subsystem)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -403,7 +414,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,18 +698,18 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -706,15 +717,18 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
       </c>
       <c r="C2">
         <v>56</v>
@@ -723,12 +737,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>56</v>
@@ -737,9 +751,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>55</v>
@@ -748,9 +762,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -759,12 +773,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
       </c>
       <c r="C6">
         <v>33</v>
@@ -773,9 +787,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -784,9 +798,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>29</v>
@@ -795,9 +809,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>29</v>
@@ -806,9 +820,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>28</v>
@@ -817,9 +831,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>26</v>
@@ -828,9 +842,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>26</v>
@@ -839,9 +853,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>26</v>
@@ -850,12 +864,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
       </c>
       <c r="C14">
         <v>25</v>
@@ -864,9 +878,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -875,12 +889,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -889,9 +903,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -900,12 +914,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -914,9 +928,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -925,9 +939,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>14</v>
@@ -936,9 +950,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -947,9 +961,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -958,9 +972,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -969,9 +983,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -980,9 +994,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -991,12 +1005,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -1005,12 +1019,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -1019,7 +1033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1033,9 +1047,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -1044,9 +1058,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -1055,9 +1069,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -1066,9 +1080,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -1077,9 +1091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>8</v>
@@ -1088,9 +1102,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -1099,9 +1113,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1110,9 +1124,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1121,9 +1135,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1132,9 +1146,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1143,12 +1157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
         <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>30</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1157,9 +1171,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1168,9 +1182,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1179,9 +1193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1190,9 +1204,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1201,9 +1215,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1212,9 +1226,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1223,9 +1237,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1234,9 +1248,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1245,9 +1259,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1256,12 +1270,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
         <v>80</v>
-      </c>
-      <c r="B49" t="s">
-        <v>81</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1270,9 +1284,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1281,9 +1295,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1292,9 +1306,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1303,9 +1317,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1314,9 +1328,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1325,9 +1339,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1336,9 +1350,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1347,9 +1361,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -1358,9 +1372,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -1369,9 +1383,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1380,9 +1394,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -1391,9 +1405,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -1402,9 +1416,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1413,9 +1427,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -1424,9 +1438,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1435,9 +1449,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -1446,9 +1460,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -1457,9 +1471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -1468,9 +1482,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -1479,9 +1493,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -1490,12 +1504,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
         <v>93</v>
-      </c>
-      <c r="B70" t="s">
-        <v>94</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -1504,9 +1518,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1515,12 +1529,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
         <v>14</v>
-      </c>
-      <c r="B72" t="s">
-        <v>15</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1529,9 +1543,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1540,9 +1554,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1551,9 +1565,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1562,9 +1576,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1573,9 +1587,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1584,9 +1598,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1595,9 +1609,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1606,9 +1620,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1617,9 +1631,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1628,9 +1642,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1639,9 +1653,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1650,9 +1664,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1661,32 +1675,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>69</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
         <v>70</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>71</v>
-      </c>
       <c r="C87">
         <v>0</v>
       </c>
@@ -1694,21 +1708,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
         <v>73</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>74</v>
-      </c>
       <c r="C89">
         <v>0</v>
       </c>
@@ -1716,9 +1730,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1727,21 +1741,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
         <v>83</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>84</v>
-      </c>
       <c r="C92">
         <v>0</v>
       </c>
@@ -1749,21 +1763,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>83</v>
       </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>84</v>
-      </c>
       <c r="C94">
         <v>0</v>
       </c>
@@ -1771,9 +1785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1782,9 +1796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -1793,54 +1807,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
         <v>88</v>
       </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
         <v>89</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
         <v>90</v>
       </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
         <v>91</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>92</v>
-      </c>
       <c r="C101">
         <v>0</v>
       </c>
@@ -1848,92 +1862,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>99</v>
       </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
         <v>100</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
         <v>101</v>
       </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
         <v>102</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>103</v>
       </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
-        <v>101</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>102</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>105</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>106</v>
       </c>
       <c r="C109">
         <v>10</v>
@@ -1943,11 +1957,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C109" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C109">
-      <sortCondition descending="1" ref="C1:C109"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/new_data/second analysis/counting.xlsx
+++ b/new_data/second analysis/counting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\new_data\second analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\new_data\second analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FA6821-A7D0-4888-8E3C-BE6E372954AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32355FE-F04F-4BB3-A34C-A7E87B9DF3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -698,18 +698,18 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -723,7 +723,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -751,7 +751,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>51</v>
       </c>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -787,7 +787,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>44</v>
       </c>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>53</v>
       </c>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>63</v>
       </c>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>76</v>
       </c>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>63</v>
       </c>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -878,7 +878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -903,7 +903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -928,7 +928,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>94</v>
       </c>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>45</v>
       </c>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>55</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>36</v>
       </c>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>48</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>33</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>62</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>38</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>96</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>95</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>67</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>5</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>11</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>37</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>54</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>57</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>58</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>54</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>86</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>8</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>52</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>65</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>74</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>97</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>9</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>21</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>21</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>21</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>59</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>66</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>78</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>81</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>81</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>81</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>81</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>81</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>81</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>7</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>61</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>71</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>77</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>84</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>85</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>12</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>26</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>26</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>47</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>56</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>60</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>64</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>68</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>69</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>70</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>72</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>73</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>75</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>82</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>83</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>82</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>83</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>83</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>82</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>87</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>88</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>89</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>90</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>91</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>98</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>101</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>102</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>101</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>104</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>105</v>
       </c>
